--- a/medicine/Pharmacie/Indication_en_médecine/Indication_en_médecine.xlsx
+++ b/medicine/Pharmacie/Indication_en_médecine/Indication_en_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Indication_en_m%C3%A9decine</t>
+          <t>Indication_en_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une indication désigne un signe clinique, une pathologie ou une situation affectant un patient, qui justifie l'intérêt d'un traitement médical ou d'un examen médical. Selon les cas, ces indications sont validées par les autorités sanitaires, médicales et la recherche scientifique. À l'inverse, un traitement ou un examen peut présenter des contre-indications.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Indication_en_m%C3%A9decine</t>
+          <t>Indication_en_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Traitement médical</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Des traitements curatif ou palliatif peuvent être indiqués dans le cadre d'un patient présentant une pathologie.
 Un traitement prophylactique est indiqué après qu'un sujet a été exposé à un risque de contracter une pathlogie, par exemple dans le cas d'un accident d'exposition au sang.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Indication_en_m%C3%A9decine</t>
+          <t>Indication_en_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Examen médical</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un examen diagnostique est indiqué en cas de symptômes, de signes cliniques, qui laissent à penser que le patient souffrirait d'une pathologie.
 Un examen de suivi est indiqué à intervalle régulier, lorsque le patient souffre d'une pathologie évolutive.
